--- a/student_marksheet1.xlsx
+++ b/student_marksheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\minor-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\reps\minor-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E0C0E7B-911F-45C2-8F6F-752B42824040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0F697-5B63-40FE-9B15-0E7BD76AC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_marksheet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,14 +880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,7 +942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -956,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -979,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2037,7 +2046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2244,7 +2253,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2888,7 +2897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2934,7 +2943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3164,7 +3173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3417,7 +3426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3578,7 +3587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4429,7 +4438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4498,7 +4507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4521,7 +4530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4544,7 +4553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4613,7 +4622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4866,7 +4875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4981,7 +4990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5096,7 +5105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5303,7 +5312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5349,7 +5358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5372,7 +5381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5395,7 +5404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5418,7 +5427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5533,7 +5542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5556,7 +5565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5648,7 +5657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5717,7 +5726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5832,7 +5841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5878,7 +5887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5924,7 +5933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5947,7 +5956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6016,7 +6025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6039,7 +6048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6108,7 +6117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6223,7 +6232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6269,7 +6278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6292,7 +6301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6315,7 +6324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6338,7 +6347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6361,7 +6370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6407,7 +6416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6430,7 +6439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6476,7 +6485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6499,7 +6508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6545,7 +6554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6568,7 +6577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6591,7 +6600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6637,7 +6646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6706,7 +6715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6729,7 +6738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6775,7 +6784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6821,7 +6830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6867,7 +6876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6890,7 +6899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6913,7 +6922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6936,7 +6945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6959,7 +6968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7005,7 +7014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7028,7 +7037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7074,7 +7083,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7097,7 +7106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7143,7 +7152,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7166,7 +7175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7189,7 +7198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -7212,7 +7221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -7235,7 +7244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -7258,7 +7267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -7281,7 +7290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -7304,7 +7313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -7350,7 +7359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7373,7 +7382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7419,7 +7428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7442,7 +7451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7465,7 +7474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7488,7 +7497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7511,7 +7520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7557,7 +7566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7580,7 +7589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7626,7 +7635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7649,7 +7658,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7672,7 +7681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7695,7 +7704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7718,7 +7727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7741,7 +7750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7764,7 +7773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7787,7 +7796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7810,7 +7819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7879,7 +7888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7902,7 +7911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7925,7 +7934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7948,7 +7957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7994,7 +8003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8017,7 +8026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8040,7 +8049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8063,7 +8072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8086,7 +8095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -8109,7 +8118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -8132,7 +8141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -8155,7 +8164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -8178,7 +8187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -8201,7 +8210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -8224,7 +8233,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -8247,7 +8256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -8293,7 +8302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -8339,7 +8348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -8362,7 +8371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -8408,7 +8417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -8431,7 +8440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -8454,7 +8463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -8477,7 +8486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8500,7 +8509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8523,7 +8532,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8546,7 +8555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8569,7 +8578,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -8615,7 +8624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -8661,7 +8670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -8684,7 +8693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -8730,7 +8739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -8753,7 +8762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8822,7 +8831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -8845,7 +8854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -8868,7 +8877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -8891,7 +8900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -8914,7 +8923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -8937,7 +8946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -8960,7 +8969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -8983,7 +8992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -9006,7 +9015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -9052,7 +9061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -9075,7 +9084,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -9144,7 +9153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -9167,7 +9176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -9190,7 +9199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -9213,7 +9222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -9236,7 +9245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -9259,7 +9268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -9282,7 +9291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -9305,7 +9314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -9328,7 +9337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -9351,7 +9360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -9397,7 +9406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -9420,7 +9429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -9443,7 +9452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -9466,7 +9475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -9512,7 +9521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -9535,7 +9544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -9558,7 +9567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -9581,7 +9590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -9604,7 +9613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -9627,7 +9636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -9650,7 +9659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -9673,7 +9682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -9696,7 +9705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -9719,7 +9728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -9742,7 +9751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -9788,7 +9797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -9811,7 +9820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -9834,7 +9843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -9857,7 +9866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -9880,7 +9889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -9903,7 +9912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -9949,7 +9958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -9972,7 +9981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -9995,7 +10004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -10018,7 +10027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -10041,7 +10050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -10064,7 +10073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -10087,7 +10096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -10133,7 +10142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -10156,7 +10165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -10179,7 +10188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -10202,7 +10211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -10225,7 +10234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -10248,7 +10257,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -10294,7 +10303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -10317,7 +10326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -10340,7 +10349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -10363,7 +10372,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -10386,7 +10395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -10409,7 +10418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -10432,7 +10441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -10455,7 +10464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -10478,7 +10487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -10501,7 +10510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -10524,7 +10533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -10547,7 +10556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -10570,7 +10579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -10593,7 +10602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -10616,7 +10625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -10639,7 +10648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -10662,7 +10671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -10685,7 +10694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -10708,7 +10717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -10731,7 +10740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -10754,7 +10763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -10800,7 +10809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -10823,7 +10832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -10846,7 +10855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -10869,7 +10878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -10892,7 +10901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -10915,7 +10924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -10938,7 +10947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -10961,7 +10970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -10984,7 +10993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -11007,7 +11016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -11030,7 +11039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -11053,7 +11062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -11076,7 +11085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -11099,7 +11108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -11122,7 +11131,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -11145,7 +11154,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -11168,7 +11177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -11191,7 +11200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -11214,7 +11223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -11260,7 +11269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -11283,7 +11292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -11306,7 +11315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -11329,7 +11338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -11352,7 +11361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -11398,7 +11407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -11421,7 +11430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -11444,7 +11453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -11467,7 +11476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -11490,7 +11499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -11513,7 +11522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -11536,7 +11545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -11559,7 +11568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -11582,7 +11591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -11605,7 +11614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -11628,7 +11637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -11651,7 +11660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -11674,7 +11683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -11697,7 +11706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -11720,7 +11729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -11743,7 +11752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -11766,7 +11775,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -11812,7 +11821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -11835,7 +11844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -11858,7 +11867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -11881,7 +11890,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -11904,7 +11913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -11927,7 +11936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -11950,7 +11959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -11973,7 +11982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -11996,7 +12005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -12019,7 +12028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -12042,7 +12051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -12065,7 +12074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -12088,7 +12097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -12111,7 +12120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -12134,7 +12143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -12157,7 +12166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -12180,7 +12189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -12203,7 +12212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -12226,7 +12235,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -12249,7 +12258,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -12272,7 +12281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -12295,7 +12304,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -12318,7 +12327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -12341,7 +12350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -12364,7 +12373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -12387,7 +12396,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -12410,7 +12419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -12433,7 +12442,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -12456,7 +12465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -12479,7 +12488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -12502,7 +12511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -12525,7 +12534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -12548,7 +12557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -12571,7 +12580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -12594,7 +12603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -12617,7 +12626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -12640,7 +12649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -12663,7 +12672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -12686,7 +12695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -12709,7 +12718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -12732,7 +12741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -12755,7 +12764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -12778,7 +12787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -12801,7 +12810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -12824,7 +12833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -12847,7 +12856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -12870,7 +12879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -12916,7 +12925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -12939,7 +12948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -12962,7 +12971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -12985,7 +12994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -13008,7 +13017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -13031,7 +13040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -13054,7 +13063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -13077,7 +13086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -13100,7 +13109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -13123,7 +13132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -13146,7 +13155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -13169,7 +13178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -13192,7 +13201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -13215,7 +13224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -13238,7 +13247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -13261,7 +13270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -13284,7 +13293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -13307,7 +13316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -13330,7 +13339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -13353,7 +13362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -13376,7 +13385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -13399,7 +13408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -13422,7 +13431,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -13445,7 +13454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -13468,7 +13477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -13491,7 +13500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -13514,7 +13523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -13537,7 +13546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -13560,7 +13569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -13583,7 +13592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -13606,7 +13615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -13652,7 +13661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -13675,7 +13684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -13698,7 +13707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -13721,7 +13730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -13744,7 +13753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -13767,7 +13776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -13790,7 +13799,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -13813,7 +13822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -13836,7 +13845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -13859,7 +13868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -13882,7 +13891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -13905,7 +13914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -13928,7 +13937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -13951,7 +13960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -13974,7 +13983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -13997,7 +14006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -14020,7 +14029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -14043,7 +14052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -14066,7 +14075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -14089,7 +14098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -14112,7 +14121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>
@@ -14135,7 +14144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>576</v>
       </c>
@@ -14158,7 +14167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>577</v>
       </c>
@@ -14181,7 +14190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>578</v>
       </c>
@@ -14204,7 +14213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>579</v>
       </c>
@@ -14227,7 +14236,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>580</v>
       </c>
@@ -14250,7 +14259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>581</v>
       </c>
@@ -14273,7 +14282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>582</v>
       </c>
@@ -14296,7 +14305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>583</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>584</v>
       </c>
@@ -14342,7 +14351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>585</v>
       </c>
@@ -14365,7 +14374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>586</v>
       </c>
@@ -14388,7 +14397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>587</v>
       </c>
@@ -14411,7 +14420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>588</v>
       </c>
@@ -14434,7 +14443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>589</v>
       </c>
@@ -14457,7 +14466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>590</v>
       </c>
@@ -14480,7 +14489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>591</v>
       </c>
@@ -14503,7 +14512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>592</v>
       </c>
@@ -14526,7 +14535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>593</v>
       </c>
@@ -14549,7 +14558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>594</v>
       </c>
@@ -14572,7 +14581,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>595</v>
       </c>
@@ -14595,7 +14604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>596</v>
       </c>
@@ -14618,7 +14627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>597</v>
       </c>
@@ -14641,7 +14650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>598</v>
       </c>
@@ -14664,7 +14673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>599</v>
       </c>
@@ -14687,7 +14696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>600</v>
       </c>
@@ -14710,7 +14719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>601</v>
       </c>
@@ -14733,7 +14742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>602</v>
       </c>
@@ -14756,7 +14765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>603</v>
       </c>
@@ -14779,7 +14788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>604</v>
       </c>
@@ -14802,7 +14811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>605</v>
       </c>
@@ -14825,7 +14834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>606</v>
       </c>
@@ -14848,7 +14857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>607</v>
       </c>
@@ -14871,7 +14880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -14894,7 +14903,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -14917,7 +14926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -14940,7 +14949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -14963,7 +14972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -14986,7 +14995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -15032,7 +15041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -15055,7 +15064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -15078,7 +15087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -15101,7 +15110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -15124,7 +15133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -15147,7 +15156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -15170,7 +15179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -15193,7 +15202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -15216,7 +15225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -15239,7 +15248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -15262,7 +15271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -15285,7 +15294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -15308,7 +15317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -15354,7 +15363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -15377,7 +15386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -15400,7 +15409,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -15423,7 +15432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -15446,7 +15455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -15469,7 +15478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -15492,7 +15501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -15515,7 +15524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -15538,7 +15547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -15561,7 +15570,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -15584,7 +15593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>
@@ -15607,7 +15616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>640</v>
       </c>
@@ -15630,7 +15639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>641</v>
       </c>
@@ -15653,7 +15662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>642</v>
       </c>
@@ -15676,7 +15685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>643</v>
       </c>
@@ -15699,7 +15708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>644</v>
       </c>
@@ -15722,7 +15731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>645</v>
       </c>
@@ -15745,7 +15754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>646</v>
       </c>
@@ -15768,7 +15777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>647</v>
       </c>
@@ -15791,7 +15800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>648</v>
       </c>
@@ -15814,7 +15823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>649</v>
       </c>
@@ -15837,7 +15846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>650</v>
       </c>
@@ -15860,7 +15869,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>651</v>
       </c>
@@ -15883,7 +15892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>652</v>
       </c>
@@ -15906,7 +15915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>653</v>
       </c>
@@ -15929,7 +15938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>654</v>
       </c>
@@ -15952,7 +15961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>655</v>
       </c>
@@ -15975,7 +15984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>656</v>
       </c>
@@ -15998,7 +16007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>657</v>
       </c>
@@ -16021,7 +16030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>658</v>
       </c>
@@ -16044,7 +16053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>659</v>
       </c>
@@ -16067,7 +16076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>660</v>
       </c>
@@ -16090,7 +16099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>661</v>
       </c>
@@ -16113,7 +16122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>662</v>
       </c>
@@ -16136,7 +16145,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>663</v>
       </c>
@@ -16159,7 +16168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>664</v>
       </c>
@@ -16182,7 +16191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>665</v>
       </c>
@@ -16205,7 +16214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>666</v>
       </c>
@@ -16228,7 +16237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>667</v>
       </c>
@@ -16251,7 +16260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>668</v>
       </c>
@@ -16274,7 +16283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>669</v>
       </c>
@@ -16297,7 +16306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>670</v>
       </c>
@@ -16320,7 +16329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>671</v>
       </c>
@@ -16343,7 +16352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>672</v>
       </c>
@@ -16366,7 +16375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>673</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>674</v>
       </c>
@@ -16412,7 +16421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>675</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>676</v>
       </c>
@@ -16458,7 +16467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>677</v>
       </c>
@@ -16481,7 +16490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>678</v>
       </c>
@@ -16504,7 +16513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>679</v>
       </c>
@@ -16527,7 +16536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>680</v>
       </c>
@@ -16550,7 +16559,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>681</v>
       </c>
@@ -16573,7 +16582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>682</v>
       </c>
@@ -16596,7 +16605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>683</v>
       </c>
@@ -16619,7 +16628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>684</v>
       </c>
@@ -16642,7 +16651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>685</v>
       </c>
@@ -16665,7 +16674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>686</v>
       </c>
@@ -16688,7 +16697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>687</v>
       </c>
@@ -16711,7 +16720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>688</v>
       </c>
@@ -16734,7 +16743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>689</v>
       </c>
@@ -16757,7 +16766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>690</v>
       </c>
@@ -16780,7 +16789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>691</v>
       </c>
@@ -16803,7 +16812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>692</v>
       </c>
@@ -16826,7 +16835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>693</v>
       </c>
@@ -16849,7 +16858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>694</v>
       </c>
@@ -16872,7 +16881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>695</v>
       </c>
@@ -16895,7 +16904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>696</v>
       </c>
@@ -16918,7 +16927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>697</v>
       </c>
@@ -16941,7 +16950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>698</v>
       </c>
@@ -16964,7 +16973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>699</v>
       </c>
@@ -16987,7 +16996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>700</v>
       </c>
@@ -17010,7 +17019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>701</v>
       </c>
@@ -17033,7 +17042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>702</v>
       </c>
@@ -17056,7 +17065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>703</v>
       </c>
@@ -17079,7 +17088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>704</v>
       </c>
@@ -17102,7 +17111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>705</v>
       </c>
@@ -17125,7 +17134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>706</v>
       </c>
@@ -17148,7 +17157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>707</v>
       </c>
@@ -17171,7 +17180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>708</v>
       </c>
@@ -17194,7 +17203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>709</v>
       </c>
@@ -17217,7 +17226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>710</v>
       </c>
@@ -17240,7 +17249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>711</v>
       </c>
@@ -17263,7 +17272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>712</v>
       </c>
@@ -17286,7 +17295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>713</v>
       </c>
@@ -17309,7 +17318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>714</v>
       </c>
@@ -17332,7 +17341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>715</v>
       </c>
@@ -17355,7 +17364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>716</v>
       </c>
@@ -17378,7 +17387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>717</v>
       </c>
@@ -17401,7 +17410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>718</v>
       </c>
@@ -17424,7 +17433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>719</v>
       </c>
@@ -17447,7 +17456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>720</v>
       </c>
@@ -17470,7 +17479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>721</v>
       </c>
@@ -17493,7 +17502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>722</v>
       </c>
@@ -17516,7 +17525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>723</v>
       </c>
@@ -17539,7 +17548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>724</v>
       </c>
@@ -17562,7 +17571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>725</v>
       </c>
@@ -17585,7 +17594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>726</v>
       </c>
@@ -17608,7 +17617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>727</v>
       </c>
@@ -17631,7 +17640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>728</v>
       </c>
@@ -17654,7 +17663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>729</v>
       </c>
@@ -17677,7 +17686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>730</v>
       </c>
@@ -17700,7 +17709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>731</v>
       </c>
@@ -17723,7 +17732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>732</v>
       </c>
@@ -17746,7 +17755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>733</v>
       </c>
@@ -17769,7 +17778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>734</v>
       </c>
@@ -17792,7 +17801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>735</v>
       </c>
@@ -17815,7 +17824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>736</v>
       </c>
@@ -17838,7 +17847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>737</v>
       </c>
@@ -17861,7 +17870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>738</v>
       </c>
@@ -17884,7 +17893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>739</v>
       </c>
@@ -17907,7 +17916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>740</v>
       </c>
@@ -17930,7 +17939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>741</v>
       </c>
@@ -17953,7 +17962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>742</v>
       </c>
@@ -17976,7 +17985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>743</v>
       </c>
@@ -17999,7 +18008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>744</v>
       </c>
@@ -18022,7 +18031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>745</v>
       </c>
@@ -18045,7 +18054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>746</v>
       </c>
@@ -18068,7 +18077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>747</v>
       </c>
@@ -18091,7 +18100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>748</v>
       </c>
@@ -18114,7 +18123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>749</v>
       </c>
@@ -18137,7 +18146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>750</v>
       </c>
@@ -18160,7 +18169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>751</v>
       </c>
@@ -18183,7 +18192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>752</v>
       </c>
@@ -18206,7 +18215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>753</v>
       </c>
@@ -18229,7 +18238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>754</v>
       </c>
@@ -18252,7 +18261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>755</v>
       </c>
@@ -18275,7 +18284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>756</v>
       </c>
@@ -18298,7 +18307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>757</v>
       </c>
@@ -18321,7 +18330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>758</v>
       </c>
@@ -18344,7 +18353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>759</v>
       </c>
@@ -18367,7 +18376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>760</v>
       </c>
@@ -18390,7 +18399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>761</v>
       </c>
@@ -18413,7 +18422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>762</v>
       </c>
@@ -18436,7 +18445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>763</v>
       </c>
@@ -18459,7 +18468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>764</v>
       </c>
@@ -18482,7 +18491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>765</v>
       </c>
@@ -18505,7 +18514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>766</v>
       </c>
@@ -18528,7 +18537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>767</v>
       </c>
@@ -18551,7 +18560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>768</v>
       </c>
@@ -18574,7 +18583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>769</v>
       </c>
@@ -18597,7 +18606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>770</v>
       </c>
@@ -18620,7 +18629,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>771</v>
       </c>
@@ -18643,7 +18652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>772</v>
       </c>
@@ -18666,7 +18675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>773</v>
       </c>
@@ -18689,7 +18698,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>774</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>775</v>
       </c>
@@ -18735,7 +18744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>776</v>
       </c>
@@ -18758,7 +18767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>777</v>
       </c>
@@ -18781,7 +18790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>778</v>
       </c>
@@ -18804,7 +18813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>779</v>
       </c>
@@ -18827,7 +18836,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>780</v>
       </c>
@@ -18850,7 +18859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>781</v>
       </c>
@@ -18873,7 +18882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>782</v>
       </c>
@@ -18896,7 +18905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>783</v>
       </c>
@@ -18919,7 +18928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>784</v>
       </c>
@@ -18942,7 +18951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>785</v>
       </c>
@@ -18965,7 +18974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>786</v>
       </c>
@@ -18988,7 +18997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>787</v>
       </c>
@@ -19011,7 +19020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>788</v>
       </c>
@@ -19034,7 +19043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>789</v>
       </c>
@@ -19057,7 +19066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>790</v>
       </c>
@@ -19080,7 +19089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>791</v>
       </c>
@@ -19103,7 +19112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>792</v>
       </c>
@@ -19126,7 +19135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>793</v>
       </c>
@@ -19149,7 +19158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>794</v>
       </c>
@@ -19172,7 +19181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>795</v>
       </c>
@@ -19195,7 +19204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>796</v>
       </c>
@@ -19218,7 +19227,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>797</v>
       </c>
@@ -19241,7 +19250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>798</v>
       </c>
@@ -19264,7 +19273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>799</v>
       </c>
@@ -19287,7 +19296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>800</v>
       </c>
@@ -19310,7 +19319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>801</v>
       </c>
@@ -19333,7 +19342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>802</v>
       </c>
@@ -19356,7 +19365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>803</v>
       </c>
@@ -19379,7 +19388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>804</v>
       </c>
@@ -19402,7 +19411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>805</v>
       </c>
@@ -19425,7 +19434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>806</v>
       </c>
@@ -19448,7 +19457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>807</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>808</v>
       </c>
@@ -19494,7 +19503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>809</v>
       </c>
@@ -19517,7 +19526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>810</v>
       </c>
@@ -19540,7 +19549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>811</v>
       </c>
@@ -19563,7 +19572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>812</v>
       </c>
@@ -19586,7 +19595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>813</v>
       </c>
@@ -19609,7 +19618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>814</v>
       </c>
@@ -19632,7 +19641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>815</v>
       </c>
@@ -19655,7 +19664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>816</v>
       </c>
@@ -19678,7 +19687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>817</v>
       </c>
@@ -19701,7 +19710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>818</v>
       </c>
@@ -19724,7 +19733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>819</v>
       </c>
@@ -19747,7 +19756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>820</v>
       </c>
@@ -19770,7 +19779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>821</v>
       </c>
@@ -19793,7 +19802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>822</v>
       </c>
@@ -19816,7 +19825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>823</v>
       </c>
@@ -19839,7 +19848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>824</v>
       </c>
@@ -19862,7 +19871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>825</v>
       </c>
@@ -19885,7 +19894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>826</v>
       </c>
@@ -19908,7 +19917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>827</v>
       </c>
@@ -19931,7 +19940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>828</v>
       </c>
@@ -19954,7 +19963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>829</v>
       </c>
@@ -19977,7 +19986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>830</v>
       </c>
@@ -20000,7 +20009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>831</v>
       </c>
@@ -20023,7 +20032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>832</v>
       </c>
@@ -20046,7 +20055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>833</v>
       </c>
@@ -20069,7 +20078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>834</v>
       </c>
@@ -20092,7 +20101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>835</v>
       </c>
@@ -20115,7 +20124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>836</v>
       </c>
@@ -20138,7 +20147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>837</v>
       </c>
@@ -20161,7 +20170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>838</v>
       </c>
@@ -20184,7 +20193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>839</v>
       </c>
@@ -20207,7 +20216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>840</v>
       </c>
@@ -20230,7 +20239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>841</v>
       </c>
@@ -20253,7 +20262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>842</v>
       </c>
@@ -20276,7 +20285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>843</v>
       </c>
@@ -20299,7 +20308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>844</v>
       </c>
@@ -20322,7 +20331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>845</v>
       </c>
@@ -20345,7 +20354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>846</v>
       </c>
@@ -20368,7 +20377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>847</v>
       </c>
@@ -20391,7 +20400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>848</v>
       </c>
@@ -20414,7 +20423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>849</v>
       </c>
@@ -20437,7 +20446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>850</v>
       </c>
@@ -20460,7 +20469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>851</v>
       </c>
@@ -20483,7 +20492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>852</v>
       </c>
@@ -20506,7 +20515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>853</v>
       </c>
@@ -20529,7 +20538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>854</v>
       </c>
@@ -20552,7 +20561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>855</v>
       </c>
@@ -20575,7 +20584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>856</v>
       </c>
@@ -20598,7 +20607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>857</v>
       </c>
@@ -20621,7 +20630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>858</v>
       </c>
@@ -20644,7 +20653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>859</v>
       </c>
@@ -20667,7 +20676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>860</v>
       </c>
@@ -20690,7 +20699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>861</v>
       </c>
@@ -20713,7 +20722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>862</v>
       </c>
@@ -20736,7 +20745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>863</v>
       </c>
@@ -20759,7 +20768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>864</v>
       </c>
@@ -20782,7 +20791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>865</v>
       </c>
@@ -20805,7 +20814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>866</v>
       </c>
@@ -20828,7 +20837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>867</v>
       </c>
@@ -20851,7 +20860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>868</v>
       </c>
@@ -20874,7 +20883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>869</v>
       </c>
@@ -20897,7 +20906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>870</v>
       </c>
@@ -20920,7 +20929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>871</v>
       </c>
@@ -20943,7 +20952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>872</v>
       </c>
@@ -20966,7 +20975,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>873</v>
       </c>
@@ -20989,7 +20998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>874</v>
       </c>
@@ -21012,7 +21021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>875</v>
       </c>
@@ -21035,7 +21044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>876</v>
       </c>
@@ -21058,7 +21067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>877</v>
       </c>
@@ -21081,7 +21090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>878</v>
       </c>
@@ -21104,7 +21113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>879</v>
       </c>
@@ -21127,7 +21136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>880</v>
       </c>
@@ -21150,7 +21159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>881</v>
       </c>
@@ -21173,7 +21182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>882</v>
       </c>
@@ -21196,7 +21205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>883</v>
       </c>
@@ -21219,7 +21228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>884</v>
       </c>
@@ -21242,7 +21251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>885</v>
       </c>
@@ -21265,7 +21274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>886</v>
       </c>
@@ -21288,7 +21297,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>887</v>
       </c>
@@ -21311,7 +21320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>888</v>
       </c>
@@ -21334,7 +21343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>889</v>
       </c>
@@ -21357,7 +21366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>890</v>
       </c>
@@ -21380,7 +21389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>891</v>
       </c>
@@ -21403,7 +21412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>892</v>
       </c>
@@ -21426,7 +21435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>893</v>
       </c>
@@ -21449,7 +21458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>894</v>
       </c>
@@ -21472,7 +21481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>895</v>
       </c>
@@ -21495,7 +21504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>896</v>
       </c>
@@ -21518,7 +21527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>897</v>
       </c>
@@ -21541,7 +21550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>898</v>
       </c>
@@ -21564,7 +21573,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>899</v>
       </c>
@@ -21587,7 +21596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>900</v>
       </c>
@@ -21610,7 +21619,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>901</v>
       </c>
@@ -21633,7 +21642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>902</v>
       </c>
@@ -21656,7 +21665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>903</v>
       </c>
@@ -21679,7 +21688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>904</v>
       </c>
@@ -21702,7 +21711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>905</v>
       </c>
@@ -21725,7 +21734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>906</v>
       </c>
@@ -21748,7 +21757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>907</v>
       </c>
@@ -21771,7 +21780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>908</v>
       </c>
@@ -21794,7 +21803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>909</v>
       </c>
@@ -21817,7 +21826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>910</v>
       </c>
@@ -21840,7 +21849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>911</v>
       </c>
@@ -21863,7 +21872,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>912</v>
       </c>
@@ -21886,7 +21895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>913</v>
       </c>
@@ -21909,7 +21918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>914</v>
       </c>
@@ -21932,7 +21941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>915</v>
       </c>
@@ -21955,7 +21964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>916</v>
       </c>
@@ -21978,7 +21987,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>917</v>
       </c>
@@ -22001,7 +22010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>918</v>
       </c>
@@ -22024,7 +22033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>919</v>
       </c>
@@ -22047,7 +22056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>920</v>
       </c>
@@ -22070,7 +22079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>921</v>
       </c>
@@ -22093,7 +22102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>922</v>
       </c>
@@ -22116,7 +22125,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>923</v>
       </c>
@@ -22139,7 +22148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>924</v>
       </c>
@@ -22162,7 +22171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>925</v>
       </c>
@@ -22185,7 +22194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>926</v>
       </c>
@@ -22208,7 +22217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>927</v>
       </c>
@@ -22231,7 +22240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>928</v>
       </c>
@@ -22254,7 +22263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>929</v>
       </c>
@@ -22277,7 +22286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>930</v>
       </c>
@@ -22300,7 +22309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>931</v>
       </c>
@@ -22323,7 +22332,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>932</v>
       </c>
@@ -22346,7 +22355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>933</v>
       </c>
@@ -22369,7 +22378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>934</v>
       </c>
@@ -22392,7 +22401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>935</v>
       </c>
@@ -22415,7 +22424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>936</v>
       </c>
@@ -22438,7 +22447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>937</v>
       </c>
@@ -22461,7 +22470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>938</v>
       </c>
@@ -22484,7 +22493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>939</v>
       </c>
@@ -22507,7 +22516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>940</v>
       </c>
@@ -22530,7 +22539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>941</v>
       </c>
@@ -22553,7 +22562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>942</v>
       </c>
@@ -22576,7 +22585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>943</v>
       </c>
@@ -22599,7 +22608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>944</v>
       </c>
@@ -22622,7 +22631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>945</v>
       </c>
@@ -22645,7 +22654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>946</v>
       </c>
@@ -22668,7 +22677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>947</v>
       </c>
@@ -22691,7 +22700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>948</v>
       </c>
@@ -22714,7 +22723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>949</v>
       </c>
@@ -22737,7 +22746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>950</v>
       </c>
@@ -22760,7 +22769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>951</v>
       </c>
@@ -22783,7 +22792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>952</v>
       </c>
@@ -22806,7 +22815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>953</v>
       </c>
@@ -22829,7 +22838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>954</v>
       </c>
@@ -22852,7 +22861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>955</v>
       </c>
@@ -22875,7 +22884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>956</v>
       </c>
@@ -22898,7 +22907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>957</v>
       </c>
@@ -22921,7 +22930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>958</v>
       </c>
@@ -22944,7 +22953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>959</v>
       </c>
@@ -22967,7 +22976,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>960</v>
       </c>
@@ -22990,7 +22999,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>961</v>
       </c>
@@ -23013,7 +23022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>962</v>
       </c>
@@ -23036,7 +23045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>963</v>
       </c>
@@ -23059,7 +23068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>964</v>
       </c>
@@ -23082,7 +23091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>965</v>
       </c>
@@ -23105,7 +23114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>966</v>
       </c>
@@ -23128,7 +23137,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>967</v>
       </c>
@@ -23151,7 +23160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>968</v>
       </c>
@@ -23174,7 +23183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>969</v>
       </c>
@@ -23197,7 +23206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>970</v>
       </c>
@@ -23220,7 +23229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>971</v>
       </c>
@@ -23243,7 +23252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>972</v>
       </c>
@@ -23266,7 +23275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>973</v>
       </c>
@@ -23289,7 +23298,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>974</v>
       </c>
@@ -23312,7 +23321,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>975</v>
       </c>
@@ -23335,7 +23344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>976</v>
       </c>
@@ -23358,7 +23367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>977</v>
       </c>
@@ -23381,7 +23390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>978</v>
       </c>
@@ -23404,7 +23413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>979</v>
       </c>
@@ -23427,7 +23436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>980</v>
       </c>
@@ -23450,7 +23459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>981</v>
       </c>
@@ -23473,7 +23482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>982</v>
       </c>
@@ -23496,7 +23505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>983</v>
       </c>
@@ -23519,7 +23528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>984</v>
       </c>
@@ -23542,7 +23551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>985</v>
       </c>
@@ -23565,7 +23574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>986</v>
       </c>
@@ -23588,7 +23597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>987</v>
       </c>
@@ -23611,7 +23620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>988</v>
       </c>
@@ -23634,7 +23643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>989</v>
       </c>
@@ -23657,7 +23666,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>990</v>
       </c>
@@ -23680,7 +23689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>991</v>
       </c>
@@ -23703,7 +23712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>992</v>
       </c>
@@ -23726,7 +23735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>993</v>
       </c>
@@ -23749,7 +23758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>994</v>
       </c>
@@ -23772,7 +23781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>995</v>
       </c>
@@ -23795,7 +23804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>996</v>
       </c>
@@ -23818,7 +23827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>997</v>
       </c>
@@ -23841,7 +23850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>998</v>
       </c>
@@ -23864,7 +23873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -23887,7 +23896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>1000</v>
       </c>
